--- a/static/main_linkedin.xlsx
+++ b/static/main_linkedin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,888 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/investment-associate-at-m13-%F0%9F%9A%80-3689217807?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=K1zEStBF77KbPS6Y4e5eow%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/a-r-intern-at-art-blocks-inc-3684465315?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=SQl2QrVim2uY95qNCZH9tQ%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/apply-for-future-roles%21-at-injective-labs-3575818142?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=W5Z%2BYDdHhGzwJ%2FYdRXjDSA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/general-application-at-sui-foundation-3696166034?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=Srw3R19OcRscuNCvKFkPog%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/content-creator-tiktok-focused-at-kiki-world-3689291137?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=7rEgfveegQ5AJM%2BkLpW1vA%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategic-partnerships-culture-nfts-at-mysten-labs-3696164190?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=5%2Fp9HaAy5nUi2j888B7UYQ%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategic-partnerships-sports-entertainment-at-mysten-labs-3696160286?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=uExANNeecK1EE%2B%2B125TgOQ%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/ecosystem-growth-associate-at-injective-labs-3627751560?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=zzO5W0%2FrUQGhecz2yJ4nCw%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/public-relations-account-coordinator-executive-at-wachsman-3686051691?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=JqphJzhErMoXHGbIad2s4A%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/catch-all-at-perfect-storm-studios-3645771479?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=h4fy%2Fb1aUQn1a8bKM%2BeU%2Fg%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/manager-influencer-outreach-at-the-snow-agency-3667178944?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=XDhvasLdTvh9cKh3GvN1HQ%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/influencer-outreach-specialist-at-the-snow-agency-3675943771?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=yNUmXu60fCp4Hbf2B1xI3w%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3691653791?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=3AqzkyolCPVC%2FmiWqzO%2BDg%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/public-relations-account-executive-associate-at-wachsman-3686040249?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=bHt6PG177s43dzDPTX78hQ%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-marketing-at-cyberjin-3695761171?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=yIbpBsLsDZZTapjnRYu25A%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/junior-art-director-at-impact-theory-3670849691?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=No1dtNxZSelwx%2BnB%2BZK4zA%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/pitch-your-own-role%21-at-rain-3696156670?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=FbYqLDJywWz0cQJpAmLOIg%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-marketing-at-cyberjin-3691647925?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=34SsvOe29dAoa68Q79xlxw%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/executive-assistant-to-ceo-at-dydx-3696767311?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=um9FYmwLhHUQTVVbZ7JKTg%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/partnerships-executive-at-magic-3654519838?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=9uK2IxfX76xxuLygJTrylQ%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3693421720?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=vBaGsrC3FPKb7wH2Ol3Hqg%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/community-manager-web3-metaverse-gaming-fully-remote-ny-at-cryptorecruit-3695685716?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=ld4sSNPra6DCme0MF%2BGC4w%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3693424058?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=iVM8WxCHwHkWeelPZd9TEw%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-marketing-at-cyberjin-3694426830?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=h4LDl7D8PdREtov1fUo28Q%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/paid-media-manager-at-single-grain-start-growing-3651898499?refId=9zlE1BBroHG7%2BgHzdhyg%2Bw%3D%3D&amp;trackingId=FI5nGSQqTyJBD3oJ2d%2Fpaw%3D%3D&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategy-lead-at-hang-3696163114?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=0UUMyRDfLZnpmGiulg1m%2Bg%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/product-designer-at-windranger-labs-3696161090?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=QrQs8jt%2FTDGJZ8jSIstZRA%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/illustrator-freelance-remote-at-braintrust-3689770620?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=hF00sYNtg187eChPPSLkyA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-marketing-at-cyberjin-3695761171?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=M0dgyGrFRPM9KqignWDnkQ%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/partnerships-executive-at-magic-3654519838?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=ZXjxh%2FWjbK%2FqugnqmI92YQ%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/go-to-market-manager-china-metaverse-project-at-cryptorecruit-3695602395?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=BfiEzvpUfUQNPDqYHwY7gA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-communications-brand-metaverse-project-at-cryptorecruit-3694988196?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=z5HA82A2%2FwMGtmhLw5av8Q%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/executive-assistant-to-ceo-at-dydx-3696767311?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=uzDFv5gbr0gmXycTZBHTbQ%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/public-relations-account-executive-associate-at-wachsman-3686040249?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=gl9%2BG87oV%2BK4eKT4AEV6jA%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/controller-at-campus-3687353967?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=L%2BMSxAHPakzpRHsjhwKUNQ%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/operations-associate-at-fortress-io-3690881862?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=sz%2FGubC%2Fp9V5UriqKg2NCA%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/paid-social-marketer-at-the-snow-agency-3667183239?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=vnSX3rxSQAdpqf9k7mwcQw%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3691653791?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=kBodoizmjlRGNyORrslp0w%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/public-relations-account-coordinator-executive-at-wachsman-3686051691?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=7r6C1z0PtHSComvisnMVVA%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-marketing-at-vir-consultant-llc-3542503328?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=aSEY6zeLqU3%2BGCT%2BwubFLw%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/full-stack-software-engineer-at-rain-3696158877?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=tsKynKJcCZdkjodcVhr%2BeA%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/front-end-developer-at-vermillio-3674756276?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=%2FUEGzg1XOp7PuW7PTcwUsg%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-business-development-gaming-at-yuga-labs-3599534118?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=NtmILA8XT7Ebl%2FeGZQVIAQ%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/create-your-own-role-at-clubrare-3684757108?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=zluGZMNeDjaVoZtxV43S%2FA%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-marketing-at-cyberjin-3694426830?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=kwjREtn0p7Mx3dJ%2BCYI%2Fiw%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/developer-relations-manager-at-workfully-3558962011?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=be9w5bE%2BRgvw8o2cjugZpA%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/application-engineer-at-infstones-3575046236?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=rDBDccpHVN8yiV6JDy2P3w%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/growth-consultant-vietnam-at-ava-labs-3621847773?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=%2FwobbveOCyBmxTFB3uG2bQ%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/account-supervisor-at-180-global-3689447517?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=82ycAxmltX5W00V5IID3iw%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/machine-learning-engineer-intern-remote-at-op3n-3684318519?refId=At5U4aROYCvXXrOk7Td3vA%3D%3D&amp;trackingId=T58PMhAmLVN2wKohVBnd8Q%3D%3D&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/investment-associate-at-m13-%F0%9F%9A%80-3689217807?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=GnKy6dDPhT3A%2Fs8Ur6t%2Bkw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/a-r-intern-at-art-blocks-inc-3684465315?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=0JEwjXBqG9yHMQOLfL7O%2Fw%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/apply-for-future-roles%21-at-injective-labs-3575818142?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=LlXA4TdSz881Yg%2Famv07RQ%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/general-application-at-sui-foundation-3696166034?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=kSi%2Bj6%2By7ZnrTAp82o7M%2BA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/content-creator-tiktok-focused-at-kiki-world-3689291137?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=A9VOC9uxSeV3bZqQaby08g%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategic-partnerships-culture-nfts-at-mysten-labs-3696164190?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=NIWrRvo7nrq8oxs%2BqYaiJA%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategic-partnerships-sports-entertainment-at-mysten-labs-3696160286?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=%2F5xKULfHF95ckG%2F8brfO6Q%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/ecosystem-growth-associate-at-injective-labs-3627751560?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=UA4BtLyjReNpwkwvP4LdpA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/public-relations-account-coordinator-executive-at-wachsman-3686051691?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=5IHGrGKs4rlhlKeuUfz%2B%2Fw%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/catch-all-at-perfect-storm-studios-3645771479?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=M3Gp0uNDrZPmZ21QMVq3hQ%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/manager-influencer-outreach-at-the-snow-agency-3667178944?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=8NNAt%2BxoEdgZX1%2F18XW5QA%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/influencer-outreach-specialist-at-the-snow-agency-3675943771?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=LqkT8f61vRNg54cozptDZA%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3691653791?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=%2BAyLfgWeS31%2FS3oJ%2FaxDJw%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/public-relations-account-executive-associate-at-wachsman-3686040249?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=7w87%2FlbW0M1Sv4wIq7ceug%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-marketing-at-cyberjin-3695761171?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=QYYQYqI52T5BGWQqFzU0EQ%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/junior-art-director-at-impact-theory-3670849691?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=GRzCacN61778TfPXUoMPGA%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/pitch-your-own-role%21-at-rain-3696156670?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=HZJr%2Fvt5X%2BnpbIQHotd2BQ%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-marketing-at-cyberjin-3691647925?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=boVXXC3p6gmnhg58cFm7yQ%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/executive-assistant-to-ceo-at-dydx-3696767311?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=fmuaAEbReEijB5sHJa7%2BaA%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/partnerships-executive-at-magic-3654519838?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=%2BWPUmD7DUxRyZPaG15rD8w%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3693421720?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=4Jk52lSj9Pdl6Wqua4K%2BLQ%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/community-manager-web3-metaverse-gaming-fully-remote-ny-at-cryptorecruit-3695685716?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=YldHoEfZ5DNRG9nBYNHNKQ%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3693424058?refId=%2Bfrr18%2BsTDlS7avpJXj%2FNg%3D%3D&amp;trackingId=TEUtK6uBiO9fkz3KfKZHFw%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/investment-associate-at-m13-%F0%9F%9A%80-3689217807?refId=X4yLNimEqSHb5xH7oUOIlQ%3D%3D&amp;trackingId=PFhR7AhuHG06JGTX1Kpiqw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/a-r-intern-at-art-blocks-inc-3684465315?refId=X4yLNimEqSHb5xH7oUOIlQ%3D%3D&amp;trackingId=j2yqM6f1409qonzJSvh3hQ%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/apply-for-future-roles%21-at-injective-labs-3575818142?refId=X4yLNimEqSHb5xH7oUOIlQ%3D%3D&amp;trackingId=ax7TNUZ%2BdmwD8AENJ1%2Bdlw%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/a-r-intern-at-art-blocks-inc-3684465315?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=D0HZ2V1NIgIso3N0%2B8CyRw%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/apply-for-future-roles%21-at-injective-labs-3575818142?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=ghK%2BMwhKfJiGt4GR%2B82rxw%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/general-application-at-sui-foundation-3696166034?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=2pM9kgk9NYh%2FSZJlIcl9iA%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/content-creator-tiktok-focused-at-kiki-world-3689291137?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=Kg6meEMmKbGSo5Q9ohWJEQ%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/catch-all-at-perfect-storm-studios-3645771479?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=uzdfRYPy4ccFVR3IwhO4DQ%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategic-partnerships-sports-entertainment-at-mysten-labs-3696160286?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=fVADQmkLYvJqu6vOOgwKbg%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3691653791?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=6FTWPHcnFgraCBKEHrRe3Q%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/public-relations-account-executive-associate-at-wachsman-3686040249?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=U51uvDMtSA%2FoJwFuUQZu1w%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/pitch-your-own-role%21-at-rain-3696156670?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=pkmXJ5NmRupd6qwVnCKX0g%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/executive-assistant-to-ceo-at-dydx-3696767311?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=C%2FnPz9ggOQm7gNs8je9THw%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/partnerships-executive-at-magic-3654519838?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=GWipjbeBDMhbTV%2FJClOWlg%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3693421720?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=Vqz5UwiMNSdMI3wgLOfapw%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3693424058?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=Mkuc60vuJR73n67ECVGqhQ%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategic-partnerships-culture-nfts-at-mysten-labs-3696164190?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=o0z3l49IwpCPcv%2BtDxjngw%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/paid-media-manager-at-single-grain-start-growing-3651898499?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=8YUKczvZWx9dZNdIPbmOMg%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/crypto-web3-fund-trader-remote-at-ultraspace3-3675870808?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=wFT9EL%2BlsXMYob6Rn4Mc8w%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-vir-consultant-llc-3542166806?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=B0VB7T9mR9hvcXH2XgFxvg%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/project-manager-at-3search-3695985925?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=lynI1HWJxrp9Re24O%2BH%2FFg%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/blockchain-research-analyst-at-validation-cloud-3590304678?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=14Z0Qik2jLmZYbSxUDEP%2Fg%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/community-manager-web3-metaverse-gaming-fully-remote-ny-at-cryptorecruit-3695685716?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=VnPVcEKaktZ0%2Bpqim%2FnfSA%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/recruiter-defi-at-cryptorecruit-3695665632?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=pEVPpFmri1v0qcjFoTCdNw%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/office-manager-at-early-stage-vc-firm-at-bloom-talent-3668161026?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=ho2cXR5F%2BEWTrxRWmurWVQ%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/investment-analyst-intern-at-dorahacks-3433252656?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=ITv98XkaQoUkI90aHEnknQ%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-business-development-gaming-at-yuga-labs-3599534118?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=8%2BXDe0Njn%2FiuxjzDuFr52w%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/create-your-own-role-at-clubrare-3684757108?refId=adUexSnXTm92LFNeu2ZDjQ%3D%3D&amp;trackingId=nG3Jm%2FWmAg%2F6DAV4dGdcwA%3D%3D&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/a-r-intern-at-art-blocks-inc-3684465315?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=hmHJUJJYI%2BGwQ%2FkwvscwjA%3D%3D&amp;position=1&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/apply-for-future-roles%21-at-injective-labs-3575818142?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=l4pvQhPxLndDksEA8tJaJg%3D%3D&amp;position=2&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/general-application-at-sui-foundation-3696166034?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=je8ok2p3JOgi4X%2BkIYtWxw%3D%3D&amp;position=3&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/content-creator-tiktok-focused-at-kiki-world-3689291137?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=SXtyqY1xScCUxOsjyqmMlA%3D%3D&amp;position=4&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/catch-all-at-perfect-storm-studios-3645771479?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=YS5lG%2FDpJfvPaV83Dkd%2F%2Bw%3D%3D&amp;position=5&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategic-partnerships-sports-entertainment-at-mysten-labs-3696160286?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=8Jj6%2B7xAupz4AYArWOMH9g%3D%3D&amp;position=6&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3691653791?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=9MHtQG7fPy4Bs421vh5PSA%3D%3D&amp;position=7&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/public-relations-account-executive-associate-at-wachsman-3686040249?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=VB2awhr5yXGHWhImJ7n6ZA%3D%3D&amp;position=8&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/pitch-your-own-role%21-at-rain-3696156670?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=AsEb1kRQjKZDp4p9CJc5Zg%3D%3D&amp;position=9&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/executive-assistant-to-ceo-at-dydx-3696767311?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=3vaeNj%2BDh3UE29gCgAMqJA%3D%3D&amp;position=10&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/partnerships-executive-at-magic-3654519838?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=WcQCtIgwO2v2Qc5hEKNL7A%3D%3D&amp;position=11&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3693421720?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=o8GH9DUrfKCOwuHO548wTA%3D%3D&amp;position=12&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-cyberjin-3693424058?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=QjOyXvyj2QFRAvAhkIjwXQ%3D%3D&amp;position=13&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/strategic-partnerships-culture-nfts-at-mysten-labs-3696164190?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=RIn7zCVilgqsjOWo5DWjZw%3D%3D&amp;position=14&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/paid-media-manager-at-single-grain-start-growing-3651898499?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=je0s0ml%2BDmsWGjhmkmnpLg%3D%3D&amp;position=15&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/crypto-web3-fund-trader-remote-at-ultraspace3-3675870808?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=TG1O%2BXmHrXGioDLuz%2BFQAg%3D%3D&amp;position=16&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/project-manager-at-3search-3695985925?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=RahzywceMXWy92d0M9%2FS3A%3D%3D&amp;position=17&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/business-development-manager-at-vir-consultant-llc-3542166806?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=ogcT4Rd6D2GnG5BcMx%2FOvQ%3D%3D&amp;position=18&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/blockchain-research-analyst-at-validation-cloud-3590304678?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=H%2FAJs4mpuDnqsXmCuTBp7Q%3D%3D&amp;position=19&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/community-manager-web3-metaverse-gaming-fully-remote-ny-at-cryptorecruit-3695685716?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=SLav1o0%2Fimi6B6hBLtDnFQ%3D%3D&amp;position=20&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/recruiter-defi-at-cryptorecruit-3695665632?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=Ny9g8YLW0AaMkBL8aNfCVQ%3D%3D&amp;position=21&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/office-manager-at-early-stage-vc-firm-at-bloom-talent-3668161026?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=XL%2F6tBwKdTFejF0sYUCiaw%3D%3D&amp;position=22&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/investment-analyst-intern-at-dorahacks-3433252656?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=zZ92g7ZQCwoF6tzqtBBakQ%3D%3D&amp;position=23&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/head-of-business-development-gaming-at-yuga-labs-3599534118?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=nNQ3g9xXX6CE3pDXP%2Fh7UQ%3D%3D&amp;position=24&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/create-your-own-role-at-clubrare-3684757108?refId=haYgu7bMjfqi6Grk0qUFkQ%3D%3D&amp;trackingId=30MLwcFbEAZhgknPsiT9jQ%3D%3D&amp;position=25&amp;pageNum=0&amp;trk=public_jobs_jserp-result_search-card</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
